--- a/experiment/nonconvex/MitsosBarton2006Ex313/compare/M-Estacionario/MitsosBarton2006Ex313_M-Estacionario.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex313/compare/M-Estacionario/MitsosBarton2006Ex313_M-Estacionario.xlsx
@@ -473,13 +473,13 @@
         <v>-2.5158000571027936</v>
       </c>
       <c r="E2">
-        <v>0.008229</v>
+        <v>0.0108614</v>
       </c>
       <c r="F2">
-        <v>0.0174107</v>
+        <v>0.0322722</v>
       </c>
       <c r="G2">
-        <v>0.010927956263736263</v>
+        <v>0.017772621146953403</v>
       </c>
       <c r="H2">
         <v>2717</v>
